--- a/results/I2_N10_T30_C325_0_P2_res.xlsx
+++ b/results/I2_N10_T30_C325_0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257.0474223937857</v>
+        <v>94.4371278619396</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.01900005340576172</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>33.0671278619396</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.641915954000082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.641915954000082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.09</v>
+        <v>61.37</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -777,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -835,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1014,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>24.69770569366316</v>
       </c>
     </row>
     <row r="5">
@@ -1022,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.34885527085025</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1046,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>20.34885527085025</v>
       </c>
     </row>
     <row r="9">
@@ -1086,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.66758337047728</v>
+        <v>26.71671453559703</v>
       </c>
     </row>
     <row r="14">
@@ -1102,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.71671453559703</v>
+        <v>27.27819014430416</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,34 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>177.7200000000015</v>
+        <v>109.9450000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1284,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>191.3599999999991</v>
+        <v>117.5900000000008</v>
       </c>
     </row>
     <row r="9">
@@ -1295,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>187.3049999999998</v>
+        <v>113.2700000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>192.2</v>
+        <v>119.1550000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1317,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>188.4699999999991</v>
+        <v>115.8050000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1328,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>67.77500000000072</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="13">
@@ -1339,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>73.77000000000072</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="14">
@@ -1350,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>74.03500000000074</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="15">
@@ -1361,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>73.04500000000073</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="16">
@@ -1372,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>72.66500000000073</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="17">
@@ -1383,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1394,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1405,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1416,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1427,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1548,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="33">
@@ -1559,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1570,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1581,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1592,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1603,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>260.7950000000008</v>
+        <v>193.0200000000017</v>
       </c>
     </row>
     <row r="38">
@@ -1614,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>276.08</v>
+        <v>202.3100000000017</v>
       </c>
     </row>
     <row r="39">
@@ -1625,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>265.2800000000007</v>
+        <v>191.2450000000017</v>
       </c>
     </row>
     <row r="40">
@@ -1636,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>281.97</v>
+        <v>208.9250000000017</v>
       </c>
     </row>
     <row r="41">
@@ -1647,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>270.325</v>
+        <v>197.6600000000017</v>
       </c>
     </row>
     <row r="42">
@@ -1669,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>238.045</v>
+        <v>238.0450000000002</v>
       </c>
     </row>
     <row r="44">
@@ -1724,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>158.8850000000006</v>
+        <v>158.8850000000008</v>
       </c>
     </row>
     <row r="49">
@@ -1768,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>318.745</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1779,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>334.76</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="54">
@@ -1790,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>327.01</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1801,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>342.625</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1812,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>323.24</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1823,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1834,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="59">
@@ -1845,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1856,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1867,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1933,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>318.745</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="68">
@@ -1944,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>334.76</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="69">
@@ -1955,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>327.01</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="70">
@@ -1966,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>342.625</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="71">
@@ -1977,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>323.24</v>
+        <v>221.56</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>9.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2156,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2167,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>17.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2280,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2291,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2302,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>10.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2313,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2324,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2778,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2803,39 +2753,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
